--- a/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_revenue_execution.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_revenue_execution.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ED2E4A-9D39-45A9-8155-2B4A25A03009}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACB46A-5442-4BF7-BF25-409DFE075E99}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Показатели</t>
   </si>
@@ -55,12 +55,6 @@
     <t>I. Доходы</t>
   </si>
   <si>
-    <t xml:space="preserve">Налоговые поступления. </t>
-  </si>
-  <si>
-    <t>в том числе:</t>
-  </si>
-  <si>
     <t>81.6</t>
   </si>
   <si>
@@ -80,6 +74,9 @@
   </si>
   <si>
     <t>Поступления трансфертов</t>
+  </si>
+  <si>
+    <t>Налоговые поступления. в том числе:</t>
   </si>
 </sst>
 </file>
@@ -115,11 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,32 +400,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3">
         <v>2022</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +487,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -509,15 +516,15 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>5575863</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>7057944</v>
@@ -538,186 +545,187 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1562092</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2095760</v>
+      </c>
+      <c r="E6">
+        <v>134</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2920802</v>
+      </c>
+      <c r="G6">
+        <v>139.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1320213.3</v>
+      </c>
+      <c r="I6">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2532524</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2807691</v>
+      </c>
+      <c r="E7">
+        <v>92.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4226358</v>
+      </c>
+      <c r="G7">
+        <v>150.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1631630.6</v>
+      </c>
+      <c r="I7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>1562092</v>
-      </c>
-      <c r="C7">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2095760</v>
-      </c>
-      <c r="E7">
-        <v>134</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2920802</v>
-      </c>
-      <c r="G7">
-        <v>139.4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1320213.3</v>
-      </c>
-      <c r="I7">
-        <v>113.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>105144</v>
+      </c>
+      <c r="C8">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>111278</v>
+      </c>
+      <c r="E8">
+        <v>95.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>153619</v>
+      </c>
+      <c r="G8">
+        <v>138.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43938.2</v>
+      </c>
+      <c r="I8">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>2532524</v>
-      </c>
-      <c r="C8">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2807691</v>
-      </c>
-      <c r="E8">
-        <v>92.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4226358</v>
-      </c>
-      <c r="G8">
-        <v>150.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1631630.6</v>
-      </c>
-      <c r="I8">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="1">
+        <v>983527</v>
+      </c>
+      <c r="C9">
+        <v>352</v>
+      </c>
+      <c r="D9" s="1">
+        <v>295440</v>
+      </c>
+      <c r="E9">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1">
+        <v>438204</v>
+      </c>
+      <c r="G9">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>83661.3</v>
+      </c>
+      <c r="I9">
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>105144</v>
-      </c>
-      <c r="C9">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>111278</v>
-      </c>
-      <c r="E9">
-        <v>95.2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>153619</v>
-      </c>
-      <c r="G9">
-        <v>138.1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43938.2</v>
-      </c>
-      <c r="I9">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>1771</v>
+      </c>
+      <c r="C10" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6582</v>
+      </c>
+      <c r="E10">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6955</v>
+      </c>
+      <c r="G10">
+        <v>105.7</v>
+      </c>
+      <c r="H10">
+        <v>252.8</v>
+      </c>
+      <c r="I10">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
-        <v>983527</v>
-      </c>
-      <c r="C10">
-        <v>352</v>
-      </c>
-      <c r="D10" s="1">
-        <v>295440</v>
-      </c>
-      <c r="E10">
-        <v>103</v>
-      </c>
-      <c r="F10" s="1">
-        <v>438204</v>
-      </c>
-      <c r="G10">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>83661.3</v>
-      </c>
-      <c r="I10">
-        <v>142.80000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
       <c r="B11" s="1">
-        <v>1771</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45095</v>
+        <v>5367571</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
       </c>
       <c r="D11" s="1">
-        <v>6582</v>
+        <v>5144663</v>
       </c>
       <c r="E11">
-        <v>184</v>
+        <v>98.9</v>
       </c>
       <c r="F11" s="1">
-        <v>6955</v>
+        <v>5491414</v>
       </c>
       <c r="G11">
-        <v>105.7</v>
-      </c>
-      <c r="H11">
-        <v>252.8</v>
+        <v>106.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1590373.5</v>
       </c>
       <c r="I11">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5367571</v>
-      </c>
-      <c r="C12">
-        <v>155</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5144663</v>
-      </c>
-      <c r="E12">
-        <v>98.9</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5491414</v>
-      </c>
-      <c r="G12">
-        <v>106.7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1590373.5</v>
-      </c>
-      <c r="I12">
         <v>86.3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_revenue_execution.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/republican_budget_revenue_execution.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DACB46A-5442-4BF7-BF25-409DFE075E99}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Показатели</t>
   </si>
   <si>
-    <t>2023 янв-апрель</t>
-  </si>
-  <si>
     <t>Исполнение</t>
   </si>
   <si>
@@ -49,15 +45,9 @@
     <t> 127,3</t>
   </si>
   <si>
-    <t>5 638 944</t>
-  </si>
-  <si>
     <t>I. Доходы</t>
   </si>
   <si>
-    <t>81.6</t>
-  </si>
-  <si>
     <t>корпоративный подоходный налог</t>
   </si>
   <si>
@@ -73,17 +63,177 @@
     <t>Поступления от продажи основного капитала</t>
   </si>
   <si>
-    <t>Поступления трансфертов</t>
-  </si>
-  <si>
-    <t>Налоговые поступления. в том числе:</t>
+    <t>2023 янв-июль</t>
+  </si>
+  <si>
+    <t>9 689 821,1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>9 607 576,8</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   106,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 676 201,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   122,8</t>
+  </si>
+  <si>
+    <t>1 979 846,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   119,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 930 893,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   139,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  88 835,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   104,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  152 369,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   94,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   399,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   30,7</t>
+  </si>
+  <si>
+    <t>12 048 961</t>
+  </si>
+  <si>
+    <t>12 680 907</t>
+  </si>
+  <si>
+    <t>11 928 462</t>
+  </si>
+  <si>
+    <t>112,6</t>
+  </si>
+  <si>
+    <t>12 504 629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 963 398</t>
+  </si>
+  <si>
+    <t>127,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Налоговые поступления. </t>
+  </si>
+  <si>
+    <t>в том числе:</t>
+  </si>
+  <si>
+    <t>5 575 863</t>
+  </si>
+  <si>
+    <t>7 057 944</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 026 825</t>
+  </si>
+  <si>
+    <t>142,1</t>
+  </si>
+  <si>
+    <t>1 562 092</t>
+  </si>
+  <si>
+    <t>2 095 760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 920 802</t>
+  </si>
+  <si>
+    <t>139,4</t>
+  </si>
+  <si>
+    <t>2 532 524</t>
+  </si>
+  <si>
+    <t>2 807 691</t>
+  </si>
+  <si>
+    <t>92,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 226 358</t>
+  </si>
+  <si>
+    <t>150,5</t>
+  </si>
+  <si>
+    <t>105 144</t>
+  </si>
+  <si>
+    <t>111 278</t>
+  </si>
+  <si>
+    <t>95,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  153 619</t>
+  </si>
+  <si>
+    <t>138,1</t>
+  </si>
+  <si>
+    <t>983 527</t>
+  </si>
+  <si>
+    <t>295 440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  438 204</t>
+  </si>
+  <si>
+    <t>148,3</t>
+  </si>
+  <si>
+    <t>1 771</t>
+  </si>
+  <si>
+    <t>6 582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 955</t>
+  </si>
+  <si>
+    <t>105,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +241,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE4F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -108,18 +337,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -180,7 +552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,7 +587,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -392,339 +764,333 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="17">
         <v>2020</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3">
+      <c r="C1" s="18"/>
+      <c r="D1" s="17">
         <v>2021</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3">
+      <c r="E1" s="18"/>
+      <c r="F1" s="17">
         <v>2022</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" ht="27" thickBot="1">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12048961</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12680907</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="4" spans="1:9" ht="27" thickBot="1">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.5">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19">
+        <v>127</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" thickBot="1">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3">
-        <v>102.6</v>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6">
+        <v>79</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6">
+        <v>134</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:9" ht="24" thickBot="1">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>11928462</v>
-      </c>
-      <c r="C4">
-        <v>112.6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12504629</v>
-      </c>
-      <c r="E4">
-        <v>105</v>
-      </c>
-      <c r="F4" s="1">
-        <v>15963398</v>
-      </c>
-      <c r="G4">
-        <v>127.7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5607936.5</v>
-      </c>
-      <c r="I4">
-        <v>107.5</v>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5575863</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>7057944</v>
-      </c>
-      <c r="E5">
-        <v>127</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10026825</v>
-      </c>
-      <c r="G5">
-        <v>142.1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3934154.6</v>
-      </c>
-      <c r="I5">
-        <v>118.7</v>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:9" ht="23.25" thickBot="1">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>1562092</v>
-      </c>
-      <c r="C6">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2095760</v>
-      </c>
-      <c r="E6">
-        <v>134</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2920802</v>
-      </c>
-      <c r="G6">
-        <v>139.4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1320213.3</v>
-      </c>
-      <c r="I6">
-        <v>113.8</v>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5">
+        <v>352</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5">
+        <v>103</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:9" ht="33.75" thickBot="1">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>2532524</v>
-      </c>
-      <c r="C7">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2807691</v>
-      </c>
-      <c r="E7">
-        <v>92.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4226358</v>
-      </c>
-      <c r="G7">
-        <v>150.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1631630.6</v>
-      </c>
-      <c r="I7">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>105144</v>
-      </c>
-      <c r="C8">
-        <v>99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>111278</v>
-      </c>
-      <c r="E8">
-        <v>95.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>153619</v>
-      </c>
-      <c r="G8">
-        <v>138.1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43938.2</v>
-      </c>
-      <c r="I8">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>983527</v>
-      </c>
-      <c r="C9">
-        <v>352</v>
-      </c>
-      <c r="D9" s="1">
-        <v>295440</v>
-      </c>
-      <c r="E9">
-        <v>103</v>
-      </c>
-      <c r="F9" s="1">
-        <v>438204</v>
-      </c>
-      <c r="G9">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>83661.3</v>
-      </c>
-      <c r="I9">
-        <v>142.80000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1771</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="D10" s="1">
-        <v>6582</v>
-      </c>
-      <c r="E10">
+      <c r="D11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="6">
         <v>184</v>
       </c>
-      <c r="F10" s="1">
-        <v>6955</v>
-      </c>
-      <c r="G10">
-        <v>105.7</v>
-      </c>
-      <c r="H10">
-        <v>252.8</v>
-      </c>
-      <c r="I10">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5367571</v>
-      </c>
-      <c r="C11">
-        <v>155</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5144663</v>
-      </c>
-      <c r="E11">
-        <v>98.9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5491414</v>
-      </c>
-      <c r="G11">
-        <v>106.7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1590373.5</v>
-      </c>
-      <c r="I11">
-        <v>86.3</v>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
